--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishwajeet Anekar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C6E32E-DBE6-4912-86C0-9E4818D471A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6066632A-CE2B-47B5-A584-2ACADD845762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{8833AA66-C0C0-488C-812C-A2F24E87BCD4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{8833AA66-C0C0-488C-812C-A2F24E87BCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="319">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -389,6 +391,612 @@
   </si>
   <si>
     <t>1. Run the white_space_validation function with the CSV file as input.&lt;br&gt;2. Check the output DataFrame for unnecessary whitespace.</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>User Registration and Authentication</t>
+  </si>
+  <si>
+    <t>New User Registration</t>
+  </si>
+  <si>
+    <t>Verify new user registration</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Click on 'Sign Up'.&lt;br&gt;3. Fill in all required details and submit.</t>
+  </si>
+  <si>
+    <t>User is registered successfully and logged into the app.</t>
+  </si>
+  <si>
+    <t>Existing User Login</t>
+  </si>
+  <si>
+    <t>Verify existing user login</t>
+  </si>
+  <si>
+    <t>Registered user</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Click on 'Login'.&lt;br&gt;3. Enter valid credentials and log in.</t>
+  </si>
+  <si>
+    <t>User is logged into the app successfully.</t>
+  </si>
+  <si>
+    <t>Incorrect Login</t>
+  </si>
+  <si>
+    <t>Verify incorrect login attempts</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Click on 'Login'.&lt;br&gt;3. Enter incorrect credentials and attempt to log in.</t>
+  </si>
+  <si>
+    <t>App displays an error message for incorrect credentials.</t>
+  </si>
+  <si>
+    <t>Empty Registration Fields</t>
+  </si>
+  <si>
+    <t>Verify registration with empty fields</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Click on 'Sign Up'.&lt;br&gt;3. Leave all fields empty and submit.</t>
+  </si>
+  <si>
+    <t>App displays error messages for each empty field.</t>
+  </si>
+  <si>
+    <t>Existing Email Registration</t>
+  </si>
+  <si>
+    <t>Verify registration with existing email</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Click on 'Sign Up'.&lt;br&gt;3. Use an email already registered and submit.</t>
+  </si>
+  <si>
+    <t>App displays an error message for existing email.</t>
+  </si>
+  <si>
+    <t>Booking a Ride</t>
+  </si>
+  <si>
+    <t>Book a Ride</t>
+  </si>
+  <si>
+    <t>Verify booking a ride functionality</t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Set pick-up and drop-off locations.&lt;br&gt;3. Select a ride option and confirm booking.</t>
+  </si>
+  <si>
+    <t>A ride is booked successfully and driver details are displayed.</t>
+  </si>
+  <si>
+    <t>Invalid Pick-up Location</t>
+  </si>
+  <si>
+    <t>Verify booking with invalid pick-up location</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Set an invalid pick-up location.&lt;br&gt;3. Select a ride option and try to book.</t>
+  </si>
+  <si>
+    <t>App displays an error message for invalid pick-up location.</t>
+  </si>
+  <si>
+    <t>No Available Drivers</t>
+  </si>
+  <si>
+    <t>Verify booking when no drivers are available</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Set pick-up and drop-off locations in a remote area.&lt;br&gt;3. Try to book a ride.</t>
+  </si>
+  <si>
+    <t>App displays a message indicating no drivers available.</t>
+  </si>
+  <si>
+    <t>Same Pick-up and Drop-off</t>
+  </si>
+  <si>
+    <t>Verify booking with same pick-up and drop-off</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Set the same pick-up and drop-off locations.&lt;br&gt;3. Try to book a ride.</t>
+  </si>
+  <si>
+    <t>App displays an error message for same pick-up and drop-off.</t>
+  </si>
+  <si>
+    <t>Booking without Destination</t>
+  </si>
+  <si>
+    <t>Verify booking without setting a destination</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Set a pick-up location only.&lt;br&gt;3. Try to book a ride.</t>
+  </si>
+  <si>
+    <t>App displays an error message for missing destination.</t>
+  </si>
+  <si>
+    <t>Ride Management</t>
+  </si>
+  <si>
+    <t>Cancel a Ride</t>
+  </si>
+  <si>
+    <t>Verify ride cancellation functionality</t>
+  </si>
+  <si>
+    <t>Ride is booked</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Go to 'Your Trips'.&lt;br&gt;3. Select the booked ride and cancel it.</t>
+  </si>
+  <si>
+    <t>Ride is canceled successfully and confirmation is displayed.</t>
+  </si>
+  <si>
+    <t>Ride In-progress</t>
+  </si>
+  <si>
+    <t>Verify functionalities during a ride</t>
+  </si>
+  <si>
+    <t>Ride is ongoing</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Go to 'Your Trips'.&lt;br&gt;3. Select the ongoing ride.</t>
+  </si>
+  <si>
+    <t>User can see the ride details and options like share trip, contact driver are available.</t>
+  </si>
+  <si>
+    <t>Cancel No-show Ride</t>
+  </si>
+  <si>
+    <t>Verify cancellation after driver no-show</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Wait for the driver to not show up.&lt;br&gt;3. Cancel the ride.</t>
+  </si>
+  <si>
+    <t>Ride is canceled without any cancellation fee.</t>
+  </si>
+  <si>
+    <t>Cancel Expired Ride</t>
+  </si>
+  <si>
+    <t>Verify cancellation of an expired ride</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Try to cancel a ride that has expired.&lt;br&gt;3. Cancel the ride.</t>
+  </si>
+  <si>
+    <t>App displays an error message for canceling an expired ride.</t>
+  </si>
+  <si>
+    <t>Cancel already Canceled Ride</t>
+  </si>
+  <si>
+    <t>Verify cancellation of an already canceled ride</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Try to cancel an already canceled ride.&lt;br&gt;3. Cancel the ride.</t>
+  </si>
+  <si>
+    <t>App displays an error message for canceling an already canceled ride.</t>
+  </si>
+  <si>
+    <t>Payment and Fare</t>
+  </si>
+  <si>
+    <t>Payment via Credit Card</t>
+  </si>
+  <si>
+    <t>Verify payment using credit card</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Go to 'Payment'.&lt;br&gt;3. Select 'Credit Card' and proceed with payment.</t>
+  </si>
+  <si>
+    <t>Payment is processed successfully and ride is completed.</t>
+  </si>
+  <si>
+    <t>Payment Failure</t>
+  </si>
+  <si>
+    <t>Verify payment failure scenarios</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Go to 'Payment'.&lt;br&gt;3. Try to process payment with invalid details.</t>
+  </si>
+  <si>
+    <t>App displays an error message for payment failure.</t>
+  </si>
+  <si>
+    <t>Fare Estimation</t>
+  </si>
+  <si>
+    <t>Verify fare estimation functionality</t>
+  </si>
+  <si>
+    <t>Ride details entered</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Enter pick-up and drop-off locations.&lt;br&gt;3. Check fare estimate.</t>
+  </si>
+  <si>
+    <t>App displays the estimated fare for the ride.</t>
+  </si>
+  <si>
+    <t>Fare Calculation Error</t>
+  </si>
+  <si>
+    <t>Verify fare calculation errors</t>
+  </si>
+  <si>
+    <t>Ride is completed</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Go to 'Your Trips'.&lt;br&gt;3. Check fare details for the completed ride.</t>
+  </si>
+  <si>
+    <t>App displays the correct fare calculation.</t>
+  </si>
+  <si>
+    <t>Payment without Sufficient Balance</t>
+  </si>
+  <si>
+    <t>Verify payment without sufficient balance</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Go to 'Payment'.&lt;br&gt;3. Try to process payment with insufficient balance.</t>
+  </si>
+  <si>
+    <t>App displays an error message for insufficient balance.</t>
+  </si>
+  <si>
+    <t>App Navigation and Usability</t>
+  </si>
+  <si>
+    <t>App Navigation</t>
+  </si>
+  <si>
+    <t>Verify app navigation and usability</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Navigate through different app sections like Home, Your Trips, Payment.</t>
+  </si>
+  <si>
+    <t>App is responsive and all sections are accessible without issues.</t>
+  </si>
+  <si>
+    <t>App Responsiveness</t>
+  </si>
+  <si>
+    <t>Verify app responsiveness on different devices</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app on different devices.&lt;br&gt;2. Perform various actions like booking, navigation.</t>
+  </si>
+  <si>
+    <t>App functions smoothly and responsively on all devices.</t>
+  </si>
+  <si>
+    <t>App Timeout</t>
+  </si>
+  <si>
+    <t>Verify app timeout scenarios</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Leave the app idle for a specific duration.&lt;br&gt;3. Try to perform an action.</t>
+  </si>
+  <si>
+    <t>App displays an error message for session timeout.</t>
+  </si>
+  <si>
+    <t>App Crashes</t>
+  </si>
+  <si>
+    <t>Verify app crash scenarios</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Perform various actions to stress the app.&lt;br&gt;3. Try to perform an action.</t>
+  </si>
+  <si>
+    <t>App crashes and displays an error message.</t>
+  </si>
+  <si>
+    <t>Invalid Inputs</t>
+  </si>
+  <si>
+    <t>Verify app response to invalid inputs</t>
+  </si>
+  <si>
+    <t>1. Open the Uber app.&lt;br&gt;2. Enter invalid inputs in different fields.&lt;br&gt;3. Try to proceed.</t>
+  </si>
+  <si>
+    <t>App displays appropriate error messages for each invalid input.</t>
+  </si>
+  <si>
+    <t>Patient Registration and Authentication</t>
+  </si>
+  <si>
+    <t>New Patient Registration</t>
+  </si>
+  <si>
+    <t>Verify new patient registration</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Click on 'Register'.&lt;br&gt;3. Fill in all required patient details and submit.</t>
+  </si>
+  <si>
+    <t>Patient is registered successfully and logged into the system.</t>
+  </si>
+  <si>
+    <t>Existing Patient Login</t>
+  </si>
+  <si>
+    <t>Verify existing patient login</t>
+  </si>
+  <si>
+    <t>Registered patient</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Click on 'Login'.&lt;br&gt;3. Enter valid credentials and log in.</t>
+  </si>
+  <si>
+    <t>Patient is logged into the system successfully.</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Click on 'Login'.&lt;br&gt;3. Enter incorrect credentials and attempt to log in.</t>
+  </si>
+  <si>
+    <t>System displays an error message for incorrect credentials.</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Click on 'Register'.&lt;br&gt;3. Leave all fields empty and submit.</t>
+  </si>
+  <si>
+    <t>System displays error messages for each empty field.</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Click on 'Register'.&lt;br&gt;3. Use an email already registered and submit.</t>
+  </si>
+  <si>
+    <t>System displays an error message for existing email.</t>
+  </si>
+  <si>
+    <t>Appointment Scheduling</t>
+  </si>
+  <si>
+    <t>Schedule Appointment</t>
+  </si>
+  <si>
+    <t>Verify appointment scheduling functionality</t>
+  </si>
+  <si>
+    <t>Patient is logged in</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Go to 'Appointments'.&lt;br&gt;3. Schedule a new appointment with a doctor.</t>
+  </si>
+  <si>
+    <t>Appointment is scheduled successfully and confirmation is displayed.</t>
+  </si>
+  <si>
+    <t>Overlapping Appointments</t>
+  </si>
+  <si>
+    <t>Verify scheduling overlapping appointments</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Go to 'Appointments'.&lt;br&gt;3. Schedule an appointment during an existing one.</t>
+  </si>
+  <si>
+    <t>System displays an error message for overlapping appointments.</t>
+  </si>
+  <si>
+    <t>Schedule with Unavailable Doctor</t>
+  </si>
+  <si>
+    <t>Verify scheduling with an unavailable doctor</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Go to 'Appointments'.&lt;br&gt;3. Schedule an appointment with an unavailable doctor.</t>
+  </si>
+  <si>
+    <t>System displays an error message for unavailable doctor.</t>
+  </si>
+  <si>
+    <t>Schedule with Past Date</t>
+  </si>
+  <si>
+    <t>Verify scheduling with a past date</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Go to 'Appointments'.&lt;br&gt;3. Schedule an appointment with a past date.</t>
+  </si>
+  <si>
+    <t>System displays an error message for past date.</t>
+  </si>
+  <si>
+    <t>Walk-in Appointments</t>
+  </si>
+  <si>
+    <t>Walk-in Appointment</t>
+  </si>
+  <si>
+    <t>Verify walk-in appointment booking</t>
+  </si>
+  <si>
+    <t>Patient walks in</t>
+  </si>
+  <si>
+    <t>1. Walk into the hospital.&lt;br&gt;2. Approach the reception.&lt;br&gt;3. Request a walk-in appointment.</t>
+  </si>
+  <si>
+    <t>Walk-in appointment is scheduled successfully and confirmation is provided.</t>
+  </si>
+  <si>
+    <t>Walk-in with Unavailable Doctor</t>
+  </si>
+  <si>
+    <t>Verify walk-in with an unavailable doctor</t>
+  </si>
+  <si>
+    <t>1. Walk into the hospital.&lt;br&gt;2. Approach the reception.&lt;br&gt;3. Request a walk-in appointment with an unavailable doctor.</t>
+  </si>
+  <si>
+    <t>Reception informs the patient about the unavailability of the doctor.</t>
+  </si>
+  <si>
+    <t>Medical Records Management</t>
+  </si>
+  <si>
+    <t>View Medical Records</t>
+  </si>
+  <si>
+    <t>Verify viewing medical records</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Go to 'Medical Records'.&lt;br&gt;3. Select a record to view.</t>
+  </si>
+  <si>
+    <t>Medical records are displayed successfully.</t>
+  </si>
+  <si>
+    <t>Upload Medical Records</t>
+  </si>
+  <si>
+    <t>Verify uploading medical records</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Go to 'Medical Records'.&lt;br&gt;3. Upload a new medical record.</t>
+  </si>
+  <si>
+    <t>Medical record is uploaded successfully and confirmation is displayed.</t>
+  </si>
+  <si>
+    <t>Delete Medical Records</t>
+  </si>
+  <si>
+    <t>Verify deleting medical records</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Go to 'Medical Records'.&lt;br&gt;3. Select and delete a medical record.</t>
+  </si>
+  <si>
+    <t>Medical record is deleted successfully.</t>
+  </si>
+  <si>
+    <t>Access Unauthorized Medical Records</t>
+  </si>
+  <si>
+    <t>Verify access to unauthorized medical records</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Try to access another patient's medical record.</t>
+  </si>
+  <si>
+    <t>System displays an error message for unauthorized access.</t>
+  </si>
+  <si>
+    <t>Billing and Payments</t>
+  </si>
+  <si>
+    <t>View Bill Details</t>
+  </si>
+  <si>
+    <t>Verify viewing bill details</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Go to 'Billing'.&lt;br&gt;3. Select a bill to view details.</t>
+  </si>
+  <si>
+    <t>Bill details are displayed successfully.</t>
+  </si>
+  <si>
+    <t>Make Payment</t>
+  </si>
+  <si>
+    <t>Verify making payment</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Go to 'Billing'.&lt;br&gt;3. Select a bill and proceed with payment.</t>
+  </si>
+  <si>
+    <t>Payment is processed successfully and confirmation is displayed.</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Go to 'Billing'.&lt;br&gt;3. Try to process payment with invalid details.</t>
+  </si>
+  <si>
+    <t>System displays an error message for payment failure.</t>
+  </si>
+  <si>
+    <t>View Payment History</t>
+  </si>
+  <si>
+    <t>Verify viewing payment history</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Go to 'Billing'.&lt;br&gt;3. View payment history.</t>
+  </si>
+  <si>
+    <t>Payment history is displayed successfully.</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Navigate through different app sections like Home, Appointments, Medical Records.</t>
+  </si>
+  <si>
+    <t>System is responsive and all sections are accessible without issues.</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System on different devices.&lt;br&gt;2. Perform various actions like appointment scheduling, navigation.</t>
+  </si>
+  <si>
+    <t>System functions smoothly and responsively on all devices.</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Leave the app idle for a specific duration.&lt;br&gt;3. Try to perform an action.</t>
+  </si>
+  <si>
+    <t>System displays an error message for session timeout.</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Perform various actions to stress the app.&lt;br&gt;3. Try to perform an action.</t>
+  </si>
+  <si>
+    <t>System crashes and displays an error message.</t>
+  </si>
+  <si>
+    <t>1. Open the Hospital Management System.&lt;br&gt;2. Enter invalid inputs in different fields.&lt;br&gt;3. Try to proceed.</t>
+  </si>
+  <si>
+    <t>System displays appropriate error messages for each invalid input.</t>
   </si>
 </sst>
 </file>
@@ -763,7 +1371,7 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:XFD1048576"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DF8515-7C72-413E-A0E2-A624E76F554D}">
   <dimension ref="A2:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1234,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308E9DC3-A278-43B4-8ED0-7D4E222F1A53}">
   <dimension ref="A2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1369,4 +1977,1274 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76CDD40-606D-48C2-8E0B-4FFF691692B2}">
+  <dimension ref="A2:I27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1.3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1.4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8">
+        <v>2.1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2.4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13">
+        <v>3.1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>3.2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>3.3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3.4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>3.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4.2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4.3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>201</v>
+      </c>
+      <c r="H20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>4.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>5.2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>5.3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>5.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>5.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4665A9C-0714-45FC-981F-3335589C543D}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1.4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7">
+        <v>2.1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2.4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11">
+        <v>2.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2.6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13">
+        <v>3.1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>3.2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>3.3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3.4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>4.2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4.3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" t="s">
+        <v>303</v>
+      </c>
+      <c r="H19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" t="s">
+        <v>307</v>
+      </c>
+      <c r="H20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" t="s">
+        <v>309</v>
+      </c>
+      <c r="H21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>5.2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>5.3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" t="s">
+        <v>313</v>
+      </c>
+      <c r="H23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>5.4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>5.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" t="s">
+        <v>317</v>
+      </c>
+      <c r="H25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>